--- a/xlsx/rq2.xlsx
+++ b/xlsx/rq2.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\articles\2024\MuTChatbots\paper\temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67DF8F-5CCE-4C9D-A31F-269784E11492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33110DD3-669C-4ACC-AA5E-3519CCC9AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA1B09E1-C9F8-4D0C-8D24-C650A315F62B}"/>
   </bookViews>
@@ -466,34 +461,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -515,6 +483,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,9 +528,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -573,7 +568,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -679,7 +674,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -821,7 +816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,7 +896,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="22">
         <v>256644</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -946,7 +941,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -989,7 +984,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1075,7 +1070,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1161,7 +1156,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
@@ -1227,7 +1222,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1269,7 +1264,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
@@ -1355,7 +1350,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1403,7 +1398,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1449,7 +1444,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1535,7 +1530,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,7 +1616,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1687,7 +1682,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1732,7 +1727,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1818,7 +1813,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1860,7 +1855,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1900,7 +1895,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1986,7 +1981,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
@@ -2072,7 +2067,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2138,7 +2133,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
@@ -2177,7 +2172,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
@@ -2263,7 +2258,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2305,7 +2300,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
@@ -2345,7 +2340,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
@@ -2431,7 +2426,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,7 +2512,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2583,7 +2578,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2622,7 +2617,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
@@ -2708,7 +2703,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2756,7 +2751,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2802,7 +2797,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2888,7 +2883,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2974,7 +2969,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
@@ -3040,7 +3035,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
@@ -3085,7 +3080,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3171,7 +3166,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3216,7 +3211,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
@@ -3259,7 +3254,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
@@ -3345,7 +3340,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
@@ -3431,7 +3426,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
@@ -3497,7 +3492,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
@@ -3539,7 +3534,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
@@ -3625,7 +3620,7 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3658,7 +3653,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
@@ -3689,7 +3684,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
@@ -3775,7 +3770,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
@@ -3861,7 +3856,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3927,7 +3922,7 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3957,7 +3952,7 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="3" t="s">
         <v>43</v>
       </c>
@@ -4043,7 +4038,7 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4082,7 +4077,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="1" t="s">
         <v>33</v>
       </c>
@@ -4119,7 +4114,7 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="1" t="s">
         <v>34</v>
       </c>
@@ -4205,7 +4200,7 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="1" t="s">
         <v>35</v>
       </c>
@@ -4291,7 +4286,7 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
@@ -4357,7 +4352,7 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="1" t="s">
         <v>42</v>
       </c>
@@ -4393,7 +4388,7 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="3" t="s">
         <v>43</v>
       </c>
@@ -4479,7 +4474,7 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4524,7 +4519,7 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="1" t="s">
         <v>33</v>
       </c>
@@ -4567,7 +4562,7 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="1" t="s">
         <v>34</v>
       </c>
@@ -4653,7 +4648,7 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="1" t="s">
         <v>35</v>
       </c>
@@ -4739,7 +4734,7 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="1" t="s">
         <v>41</v>
       </c>
@@ -4805,7 +4800,7 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="1" t="s">
         <v>42</v>
       </c>
@@ -4847,7 +4842,7 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="3" t="s">
         <v>43</v>
       </c>
@@ -4933,7 +4928,7 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4975,7 +4970,7 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="1" t="s">
         <v>33</v>
       </c>
@@ -5015,7 +5010,7 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="1" t="s">
         <v>34</v>
       </c>
@@ -5101,7 +5096,7 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="1" t="s">
         <v>35</v>
       </c>
@@ -5187,7 +5182,7 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="1" t="s">
         <v>41</v>
       </c>
@@ -5253,7 +5248,7 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="1" t="s">
         <v>42</v>
       </c>
@@ -5292,7 +5287,7 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="3" t="s">
         <v>43</v>
       </c>
@@ -5378,7 +5373,7 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -5420,7 +5415,7 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="1" t="s">
         <v>33</v>
       </c>
@@ -5460,7 +5455,7 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="1" t="s">
         <v>34</v>
       </c>
@@ -5546,7 +5541,7 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="1" t="s">
         <v>35</v>
       </c>
@@ -5632,7 +5627,7 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="1" t="s">
         <v>41</v>
       </c>
@@ -5698,7 +5693,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="1" t="s">
         <v>42</v>
       </c>
@@ -5737,7 +5732,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="3" t="s">
         <v>43</v>
       </c>
@@ -5823,7 +5818,7 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -5868,7 +5863,7 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="1" t="s">
         <v>33</v>
       </c>
@@ -5911,7 +5906,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="1" t="s">
         <v>34</v>
       </c>
@@ -5997,7 +5992,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="1" t="s">
         <v>35</v>
       </c>
@@ -6083,7 +6078,7 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="1" t="s">
         <v>41</v>
       </c>
@@ -6149,7 +6144,7 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="1" t="s">
         <v>42</v>
       </c>
@@ -6191,7 +6186,7 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="3" t="s">
         <v>43</v>
       </c>
@@ -6277,7 +6272,7 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -6313,7 +6308,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="1" t="s">
         <v>33</v>
       </c>
@@ -6347,7 +6342,7 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="1" t="s">
         <v>34</v>
       </c>
@@ -6433,7 +6428,7 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="1" t="s">
         <v>35</v>
       </c>
@@ -6519,7 +6514,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="1" t="s">
         <v>41</v>
       </c>
@@ -6585,7 +6580,7 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="1" t="s">
         <v>42</v>
       </c>
@@ -6618,7 +6613,7 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
+      <c r="A92" s="22"/>
       <c r="B92" s="3" t="s">
         <v>43</v>
       </c>
@@ -6704,7 +6699,7 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -6737,7 +6732,7 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="1" t="s">
         <v>33</v>
       </c>
@@ -6768,7 +6763,7 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="1" t="s">
         <v>34</v>
       </c>
@@ -6854,7 +6849,7 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="1" t="s">
         <v>35</v>
       </c>
@@ -6940,7 +6935,7 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="1" t="s">
         <v>41</v>
       </c>
@@ -7006,7 +7001,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
+      <c r="A98" s="22"/>
       <c r="B98" s="1" t="s">
         <v>42</v>
       </c>
@@ -7036,7 +7031,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
+      <c r="A99" s="22"/>
       <c r="B99" s="3" t="s">
         <v>43</v>
       </c>
@@ -7122,7 +7117,7 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -7185,7 +7180,7 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
+      <c r="A101" s="22"/>
       <c r="B101" s="1" t="s">
         <v>33</v>
       </c>
@@ -7246,7 +7241,7 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
+      <c r="A102" s="22"/>
       <c r="B102" s="1" t="s">
         <v>34</v>
       </c>
@@ -7332,7 +7327,7 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
+      <c r="A103" s="22"/>
       <c r="B103" s="1" t="s">
         <v>35</v>
       </c>
@@ -7418,7 +7413,7 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
+      <c r="A104" s="22"/>
       <c r="B104" s="1" t="s">
         <v>41</v>
       </c>
@@ -7484,7 +7479,7 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
+      <c r="A105" s="22"/>
       <c r="B105" s="1" t="s">
         <v>42</v>
       </c>
@@ -7544,7 +7539,7 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
+      <c r="A106" s="22"/>
       <c r="B106" s="3" t="s">
         <v>43</v>
       </c>
@@ -7630,7 +7625,7 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -7718,7 +7713,7 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="1" t="s">
         <v>33</v>
       </c>
@@ -7804,7 +7799,7 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="1" t="s">
         <v>34</v>
       </c>
@@ -7890,7 +7885,7 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="1" t="s">
         <v>35</v>
       </c>
@@ -7976,7 +7971,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="1" t="s">
         <v>41</v>
       </c>
@@ -8062,7 +8057,7 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="A112" s="20"/>
       <c r="B112" s="1" t="s">
         <v>42</v>
       </c>
@@ -8148,7 +8143,7 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="3" t="s">
         <v>43</v>
       </c>
@@ -8234,7 +8229,7 @@
       </c>
     </row>
     <row r="114" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -8322,7 +8317,7 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="1" t="s">
         <v>33</v>
       </c>
@@ -8408,7 +8403,7 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="1" t="s">
         <v>34</v>
       </c>
@@ -8494,7 +8489,7 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="1" t="s">
         <v>35</v>
       </c>
@@ -8580,7 +8575,7 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="21"/>
       <c r="B118" s="1" t="s">
         <v>41</v>
       </c>
@@ -8666,7 +8661,7 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="1" t="s">
         <v>42</v>
       </c>
@@ -8752,7 +8747,7 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="3" t="s">
         <v>43</v>
       </c>
@@ -9018,80 +9013,80 @@
       <c r="B123" t="s">
         <v>39</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="23">
         <f>IF(OR(C2&lt;&gt;"",D2&lt;&gt;"",E2&lt;&gt;"",F2&lt;&gt;"",G2&lt;&gt;"",H2&lt;&gt;"",I2&lt;&gt;"",J2&lt;&gt;""),1,0)+IF(OR(C9&lt;&gt;"",D9&lt;&gt;"",E9&lt;&gt;"",F9&lt;&gt;"",G9&lt;&gt;"",H9&lt;&gt;"",I9&lt;&gt;"",J9&lt;&gt;""),1,0)+IF(OR(C16&lt;&gt;"",D16&lt;&gt;"",E16&lt;&gt;"",F16&lt;&gt;"",G16&lt;&gt;"",H16&lt;&gt;"",I16&lt;&gt;"",J16&lt;&gt;""),1,0)+IF(OR(C23&lt;&gt;"",D23&lt;&gt;"",E23&lt;&gt;"",F23&lt;&gt;"",G23&lt;&gt;"",H23&lt;&gt;"",I23&lt;&gt;"",J23&lt;&gt;""),1,0)+IF(OR(C30&lt;&gt;"",D30&lt;&gt;"",E30&lt;&gt;"",F30&lt;&gt;"",G30&lt;&gt;"",H30&lt;&gt;"",I30&lt;&gt;"",J30&lt;&gt;""),1,0)+IF(OR(C37&lt;&gt;"",D37&lt;&gt;"",E37&lt;&gt;"",F37&lt;&gt;"",G37&lt;&gt;"",H37&lt;&gt;"",I37&lt;&gt;"",J37&lt;&gt;""),1,0)+IF(OR(C44&lt;&gt;"",D44&lt;&gt;"",E44&lt;&gt;"",F44&lt;&gt;"",G44&lt;&gt;"",H44&lt;&gt;"",I44&lt;&gt;"",J44&lt;&gt;""),1,0)+IF(OR(C51&lt;&gt;"",D51&lt;&gt;"",E51&lt;&gt;"",F51&lt;&gt;"",G51&lt;&gt;"",H51&lt;&gt;"",I51&lt;&gt;"",J51&lt;&gt;""),1,0)+IF(OR(C58&lt;&gt;"",D58&lt;&gt;"",E58&lt;&gt;"",F58&lt;&gt;"",G58&lt;&gt;"",H58&lt;&gt;"",I58&lt;&gt;"",J58&lt;&gt;""),1,0)+IF(OR(C65&lt;&gt;"",D65&lt;&gt;"",E65&lt;&gt;"",F65&lt;&gt;"",G65&lt;&gt;"",H65&lt;&gt;"",I65&lt;&gt;"",J65&lt;&gt;""),1,0)+IF(OR(C72&lt;&gt;"",D72&lt;&gt;"",E72&lt;&gt;"",F72&lt;&gt;"",G72&lt;&gt;"",H72&lt;&gt;"",I72&lt;&gt;"",J72&lt;&gt;""),1,0)+IF(OR(C79&lt;&gt;"",D79&lt;&gt;"",E79&lt;&gt;"",F79&lt;&gt;"",G79&lt;&gt;"",H79&lt;&gt;"",I79&lt;&gt;"",J79&lt;&gt;""),1,0)+IF(OR(C86&lt;&gt;"",D86&lt;&gt;"",E86&lt;&gt;"",F86&lt;&gt;"",G86&lt;&gt;"",H86&lt;&gt;"",I86&lt;&gt;"",J86&lt;&gt;""),1,0)+IF(OR(C93&lt;&gt;"",D93&lt;&gt;"",E93&lt;&gt;"",F93&lt;&gt;"",G93&lt;&gt;"",H93&lt;&gt;"",I93&lt;&gt;"",J93&lt;&gt;""),1,0)+IF(OR(C100&lt;&gt;"",D100&lt;&gt;"",E100&lt;&gt;"",F100&lt;&gt;"",G100&lt;&gt;"",H100&lt;&gt;"",I100&lt;&gt;"",J100&lt;&gt;""),1,0)</f>
         <v>15</v>
       </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6">
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23"/>
+      <c r="K123" s="23">
         <f>IF(OR(K2&lt;&gt;"",L2&lt;&gt;"",M2&lt;&gt;"",N2&lt;&gt;""),1,0)+IF(OR(K9&lt;&gt;"",L9&lt;&gt;"",M9&lt;&gt;"",N9&lt;&gt;""),1,0)+IF(OR(K16&lt;&gt;"",L16&lt;&gt;"",M16&lt;&gt;"",N16&lt;&gt;""),1,0)+IF(OR(K23&lt;&gt;"",L23&lt;&gt;"",M23&lt;&gt;"",N23&lt;&gt;""),1,0)+IF(OR(K30&lt;&gt;"",L30&lt;&gt;"",M30&lt;&gt;"",N30&lt;&gt;""),1,0)+IF(OR(K37&lt;&gt;"",L37&lt;&gt;"",M37&lt;&gt;"",N37&lt;&gt;""),1,0)+IF(OR(K44&lt;&gt;"",L44&lt;&gt;"",M44&lt;&gt;"",N44&lt;&gt;""),1,0)+IF(OR(K51&lt;&gt;"",L51&lt;&gt;"",M51&lt;&gt;"",N51&lt;&gt;""),1,0)+IF(OR(K58&lt;&gt;"",L58&lt;&gt;"",M58&lt;&gt;"",N58&lt;&gt;""),1,0)+IF(OR(K65&lt;&gt;"",L65&lt;&gt;"",M65&lt;&gt;"",N65&lt;&gt;""),1,0)+IF(OR(K72&lt;&gt;"",L72&lt;&gt;"",M72&lt;&gt;"",N72&lt;&gt;""),1,0)+IF(OR(K79&lt;&gt;"",L79&lt;&gt;"",M79&lt;&gt;"",N79&lt;&gt;""),1,0)+IF(OR(K86&lt;&gt;"",L86&lt;&gt;"",M86&lt;&gt;"",N86&lt;&gt;""),1,0)+IF(OR(K93&lt;&gt;"",L93&lt;&gt;"",M93&lt;&gt;"",N93&lt;&gt;""),1,0)+IF(OR(K100&lt;&gt;"",L100&lt;&gt;"",M100&lt;&gt;"",N100&lt;&gt;""),1,0)</f>
         <v>10</v>
       </c>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="6">
+      <c r="L123" s="23"/>
+      <c r="M123" s="23"/>
+      <c r="N123" s="23"/>
+      <c r="O123" s="23">
         <f>IF(OR(O2&lt;&gt;"",P2&lt;&gt;""),1,0)+IF(OR(O9&lt;&gt;"",P9&lt;&gt;""),1,0)+IF(OR(O16&lt;&gt;"",P16&lt;&gt;""),1,0)+IF(OR(O23&lt;&gt;"",P23&lt;&gt;""),1,0)+IF(OR(O30&lt;&gt;"",P30&lt;&gt;""),1,0)+IF(OR(O37&lt;&gt;"",P37&lt;&gt;""),1,0)+IF(OR(O44&lt;&gt;"",P44&lt;&gt;""),1,0)+IF(OR(O51&lt;&gt;"",P51&lt;&gt;""),1,0)+IF(OR(O58&lt;&gt;"",P58&lt;&gt;""),1,0)+IF(OR(O65&lt;&gt;"",P65&lt;&gt;""),1,0)+IF(OR(O72&lt;&gt;"",P72&lt;&gt;""),1,0)+IF(OR(O79&lt;&gt;"",P79&lt;&gt;""),1,0)+IF(OR(O86&lt;&gt;"",P86&lt;&gt;""),1,0)+IF(OR(O93&lt;&gt;"",P93&lt;&gt;""),1,0)+IF(OR(O100&lt;&gt;"",P100&lt;&gt;""),1,0)</f>
         <v>2</v>
       </c>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="6">
+      <c r="P123" s="23"/>
+      <c r="Q123" s="23">
         <f>IF(OR(Q2&lt;&gt;"",R2&lt;&gt;"",S2&lt;&gt;""),1,0)+IF(OR(Q9&lt;&gt;"",R9&lt;&gt;"",S9&lt;&gt;""),1,0)+IF(OR(Q16&lt;&gt;"",R16&lt;&gt;"",S16&lt;&gt;""),1,0)+IF(OR(Q23&lt;&gt;"",R23&lt;&gt;"",S23&lt;&gt;""),1,0)+IF(OR(Q30&lt;&gt;"",R30&lt;&gt;"",S30&lt;&gt;""),1,0)+IF(OR(Q37&lt;&gt;"",R37&lt;&gt;"",S37&lt;&gt;""),1,0)+IF(OR(Q44&lt;&gt;"",R44&lt;&gt;"",S44&lt;&gt;""),1,0)+IF(OR(Q51&lt;&gt;"",R51&lt;&gt;"",S51&lt;&gt;""),1,0)+IF(OR(Q58&lt;&gt;"",R58&lt;&gt;"",S58&lt;&gt;""),1,0)+IF(OR(Q65&lt;&gt;"",R65&lt;&gt;"",S65&lt;&gt;""),1,0)+IF(OR(Q72&lt;&gt;"",R72&lt;&gt;"",S72&lt;&gt;""),1,0)+IF(OR(Q79&lt;&gt;"",R79&lt;&gt;"",S79&lt;&gt;""),1,0)+IF(OR(Q86&lt;&gt;"",R86&lt;&gt;"",S86&lt;&gt;""),1,0)+IF(OR(Q93&lt;&gt;"",R93&lt;&gt;"",S93&lt;&gt;""),1,0)+IF(OR(Q100&lt;&gt;"",R100&lt;&gt;"",S100&lt;&gt;""),1,0)</f>
         <v>15</v>
       </c>
-      <c r="R123" s="6"/>
-      <c r="S123" s="6"/>
-      <c r="T123" s="6">
+      <c r="R123" s="23"/>
+      <c r="S123" s="23"/>
+      <c r="T123" s="23">
         <f>IF(OR(T2&lt;&gt;"",U2&lt;&gt;""),1,0)+IF(OR(T9&lt;&gt;"",U9&lt;&gt;""),1,0)+IF(OR(T16&lt;&gt;"",U16&lt;&gt;""),1,0)+IF(OR(T23&lt;&gt;"",U23&lt;&gt;""),1,0)+IF(OR(T30&lt;&gt;"",U30&lt;&gt;""),1,0)+IF(OR(T37&lt;&gt;"",U37&lt;&gt;""),1,0)+IF(OR(T44&lt;&gt;"",U44&lt;&gt;""),1,0)+IF(OR(T51&lt;&gt;"",U51&lt;&gt;""),1,0)+IF(OR(T58&lt;&gt;"",U58&lt;&gt;""),1,0)+IF(OR(T65&lt;&gt;"",U65&lt;&gt;""),1,0)+IF(OR(T72&lt;&gt;"",U72&lt;&gt;""),1,0)+IF(OR(T79&lt;&gt;"",U79&lt;&gt;""),1,0)+IF(OR(T86&lt;&gt;"",U86&lt;&gt;""),1,0)+IF(OR(T93&lt;&gt;"",U93&lt;&gt;""),1,0)+IF(OR(T100&lt;&gt;"",U100&lt;&gt;""),1,0)</f>
         <v>12</v>
       </c>
-      <c r="U123" s="6"/>
+      <c r="U123" s="23"/>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>57</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="23">
         <v>9184</v>
       </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6">
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="23"/>
+      <c r="K124" s="23">
         <f>K6+K13+K20+K34+K83+K104+N41+N62+N76+N90</f>
         <v>5050</v>
       </c>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="6">
+      <c r="L124" s="23"/>
+      <c r="M124" s="23"/>
+      <c r="N124" s="23"/>
+      <c r="O124" s="23">
         <v>79</v>
       </c>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6">
+      <c r="P124" s="23"/>
+      <c r="Q124" s="23">
         <v>9184</v>
       </c>
-      <c r="R124" s="6"/>
-      <c r="S124" s="6"/>
-      <c r="T124" s="6">
+      <c r="R124" s="23"/>
+      <c r="S124" s="23"/>
+      <c r="T124" s="23">
         <v>8390</v>
       </c>
-      <c r="U124" s="6"/>
+      <c r="U124" s="23"/>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q125" s="6"/>
-      <c r="R125" s="6"/>
-      <c r="S125" s="6"/>
+      <c r="Q125" s="23"/>
+      <c r="R125" s="23"/>
+      <c r="S125" s="23"/>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -9279,23 +9274,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A36"/>
     <mergeCell ref="T124:U124"/>
     <mergeCell ref="C123:J123"/>
     <mergeCell ref="K123:N123"/>
@@ -9307,8 +9285,26 @@
     <mergeCell ref="K124:N124"/>
     <mergeCell ref="O124:P124"/>
     <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="A100:A106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="V2" formulaRange="1"/>
   </ignoredErrors>
@@ -9329,1385 +9325,1390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="26">
         <v>256644</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="8">
         <v>11</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="8">
         <v>11</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
         <v>11</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="8">
         <v>11</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="8">
         <v>11</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="8">
         <v>11</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="8">
         <f>SUM(C2:J2)</f>
         <v>66</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="8">
         <f>K2*100/K$32</f>
         <v>4.8422597212032281</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="19">
         <f>(K2-K3)/K2</f>
         <v>0.71212121212121215</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="13">
         <v>10</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="13">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="22">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22">
-        <v>1</v>
-      </c>
-      <c r="J3" s="22">
-        <v>1</v>
-      </c>
-      <c r="K3" s="22">
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
         <f t="shared" ref="K3:K31" si="0">SUM(C3:J3)</f>
         <v>19</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="13">
         <f>K3*100/K$33</f>
         <v>4.0685224839400425</v>
       </c>
-      <c r="M3" s="23"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="10">
         <v>9</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="10">
         <v>9</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
         <v>3</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="10">
         <v>9</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="10">
         <v>9</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="10">
         <v>9</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="10">
         <v>9</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="10">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="10">
         <f>K4*100/K$32</f>
         <v>4.1819515774027876</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="11">
         <f>(K4-K5)/K4</f>
         <v>0.82456140350877194</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
-        <v>1</v>
-      </c>
-      <c r="H5" s="22">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
         <v>3</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="13">
         <v>2</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="13">
         <v>2</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="13">
         <f>K5*100/K$33</f>
         <v>2.1413276231263385</v>
       </c>
-      <c r="M5" s="23"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="10">
         <v>3</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
         <v>3</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="10">
         <v>3</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="10">
         <v>3</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="10">
         <f>K6*100/K$32</f>
         <v>1.3206162876008805</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="11">
         <f>(K6-K7)/K6</f>
         <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="22">
-        <v>1</v>
-      </c>
-      <c r="I7" s="22">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22">
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="13">
         <f>K7*100/K$33</f>
         <v>1.4989293361884368</v>
       </c>
-      <c r="M7" s="23"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="10">
         <v>42</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="10">
         <v>42</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
         <v>42</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="10">
         <v>42</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="10">
         <v>42</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="10">
         <v>42</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="10">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="10">
         <f>K8*100/K$32</f>
         <v>18.488628026412325</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="11">
         <f>(K8-K9)/K8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="22">
-        <v>0</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="13">
         <f>K9*100/K$33</f>
         <v>0</v>
       </c>
-      <c r="M9" s="23"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="10">
         <v>11</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="10">
         <v>11</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="10">
         <v>11</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="10">
         <v>11</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="10">
         <v>11</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="10">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="10">
         <f>K10*100/K$32</f>
         <v>4.7688921496698455</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="11">
         <f>(K10-K11)/K10</f>
         <v>0.67692307692307696</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="13">
         <v>7</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="22">
-        <v>1</v>
-      </c>
-      <c r="I11" s="22">
-        <v>1</v>
-      </c>
-      <c r="J11" s="22">
-        <v>1</v>
-      </c>
-      <c r="K11" s="22">
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="13">
         <f>K11*100/K$33</f>
         <v>4.4967880085653107</v>
       </c>
-      <c r="M11" s="23"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="10">
         <v>8</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="10">
         <v>8</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <v>8</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="10">
         <v>8</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="10">
         <v>8</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="10">
         <v>8</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="10">
         <f>K12*100/K$32</f>
         <v>3.5216434336023479</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="11">
         <f>(K12-K13)/K12</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="22">
-        <v>0</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="22">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22">
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="13">
         <f>K13*100/K$33</f>
         <v>0</v>
       </c>
-      <c r="M13" s="23"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="10">
         <v>9</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="10">
         <v>9</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
         <v>7</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="10">
         <v>7</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="10">
         <v>9</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="10">
         <v>9</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="10">
         <f>K14*100/K$32</f>
         <v>3.6683785766691122</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="11">
         <f>(K14-K15)/K14</f>
         <v>0.76</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="13">
         <v>6</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="13">
         <v>5</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="22">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0</v>
-      </c>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <v>1</v>
-      </c>
-      <c r="K15" s="22">
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1</v>
+      </c>
+      <c r="K15" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="13">
         <f>K15*100/K$33</f>
         <v>2.5695931477516059</v>
       </c>
-      <c r="M15" s="23"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="10">
         <v>4</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="10">
         <v>4</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
         <v>4</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="10">
         <v>4</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="10">
         <v>4</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="10">
         <v>4</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="10">
         <f>K16*100/K$32</f>
         <v>1.7608217168011739</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="11">
         <f>(K16-K17)/K16</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="13">
         <v>4</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="22">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22">
-        <v>0</v>
-      </c>
-      <c r="K17" s="22">
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="13">
         <f>K17*100/K$33</f>
         <v>1.2847965738758029</v>
       </c>
-      <c r="M17" s="23"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="10">
         <v>6</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="10">
         <v>6</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10">
         <v>6</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="10">
         <v>6</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="10">
         <v>6</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="10">
         <v>6</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="10">
         <f>K18*100/K$32</f>
         <v>2.6412325752017609</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="11">
         <f>(K18-K19)/K18</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="22">
-        <v>0</v>
-      </c>
-      <c r="D19" s="22">
-        <v>0</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="22">
-        <v>0</v>
-      </c>
-      <c r="H19" s="22">
-        <v>0</v>
-      </c>
-      <c r="I19" s="22">
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="13">
         <f>K19*100/K$33</f>
         <v>0</v>
       </c>
-      <c r="M19" s="23"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="10">
         <v>9</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="10">
         <v>9</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
         <v>9</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="10">
         <v>9</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="10">
         <v>9</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="10">
         <v>9</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="10">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="10">
         <f>K20*100/K$32</f>
         <v>3.9618488628026411</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="11">
         <f>(K20-K21)/K20</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="22">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22" t="s">
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="22">
-        <v>0</v>
-      </c>
-      <c r="H21" s="22">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22">
-        <v>0</v>
-      </c>
-      <c r="J21" s="22">
-        <v>0</v>
-      </c>
-      <c r="K21" s="22">
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="13">
         <f>K21*100/K$33</f>
         <v>0</v>
       </c>
-      <c r="M21" s="23"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="10">
         <v>52</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="10">
         <v>52</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
         <v>51</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="10">
         <v>52</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="10">
         <v>52</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="10">
         <v>52</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="10">
         <f t="shared" si="0"/>
         <v>311</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="10">
         <f>K22*100/K$32</f>
         <v>22.817314746881877</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="11">
         <f>(K22-K23)/K22</f>
         <v>0.48231511254019294</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="13">
         <v>52</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="13">
         <v>45</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="13">
         <v>18</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="13">
         <v>22</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="13">
         <v>14</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="13">
         <v>10</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="13">
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="15">
         <f>K23*100/K$33</f>
         <v>34.475374732334046</v>
       </c>
-      <c r="M23" s="23"/>
+      <c r="M23" s="14"/>
       <c r="N23">
         <f>L23+L25</f>
         <v>72.805139186295506</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="10">
         <v>35</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="10">
         <v>35</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
         <v>34</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="10">
         <v>34</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="10">
         <v>35</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="10">
         <v>35</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="10">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="10">
         <f>K24*100/K$32</f>
         <v>15.260454878943507</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="11">
         <f>(K24-K25)/K24</f>
         <v>0.13942307692307693</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="13">
         <v>33</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="13">
         <v>32</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="13">
         <v>27</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="13">
         <v>29</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="13">
         <v>29</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="13">
         <v>29</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="13">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="15">
         <f>K25*100/K$33</f>
         <v>38.329764453961459</v>
       </c>
-      <c r="M25" s="23"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="10">
         <v>12</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="10">
         <v>12</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10">
         <v>12</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="10">
         <v>12</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="10">
         <v>12</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="10">
         <v>12</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="10">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="10">
         <f>K26*100/K$32</f>
         <v>5.2824651504035218</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="11">
         <f>(K26-K27)/K26</f>
         <v>0.625</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="13">
         <v>12</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="13">
         <v>9</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="22">
-        <v>1</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
         <v>2</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="13">
         <v>2</v>
       </c>
-      <c r="J27" s="22">
-        <v>1</v>
-      </c>
-      <c r="K27" s="22">
+      <c r="J27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="13">
         <f>K27*100/K$33</f>
         <v>5.7815845824411136</v>
       </c>
-      <c r="M27" s="23"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="10">
         <v>15</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="10">
         <v>15</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10">
         <v>10</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="10">
         <v>12</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="10">
         <v>14</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="10">
         <v>15</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="10">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="10">
         <f>K28*100/K$32</f>
         <v>5.9427732942039615</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="11">
         <f>(K28-K29)/K28</f>
         <v>0.85185185185185186</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="13">
         <v>6</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="13">
         <v>5</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="22">
-        <v>0</v>
-      </c>
-      <c r="H29" s="22">
-        <v>1</v>
-      </c>
-      <c r="I29" s="22">
-        <v>0</v>
-      </c>
-      <c r="J29" s="22">
-        <v>0</v>
-      </c>
-      <c r="K29" s="22">
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="13">
         <f>K29*100/K$33</f>
         <v>2.5695931477516059</v>
       </c>
-      <c r="M29" s="23"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="10">
         <v>3</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="10">
         <v>3</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="10">
         <v>3</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="10">
         <v>2</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="10">
         <v>2</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="10">
         <v>2</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="10">
         <v>3</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="10">
         <v>3</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="10">
         <f>K30*100/K$32</f>
         <v>1.5407190022010271</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="11">
         <f>(K30-K31)/K30</f>
         <v>0.38095238095238093</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="13">
         <v>3</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="13">
         <v>3</v>
       </c>
-      <c r="E31" s="22">
-        <v>1</v>
-      </c>
-      <c r="F31" s="22">
+      <c r="E31" s="13">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13">
         <v>2</v>
       </c>
-      <c r="G31" s="22">
-        <v>1</v>
-      </c>
-      <c r="H31" s="22">
-        <v>1</v>
-      </c>
-      <c r="I31" s="22">
-        <v>1</v>
-      </c>
-      <c r="J31" s="22">
-        <v>1</v>
-      </c>
-      <c r="K31" s="22">
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <v>1</v>
+      </c>
+      <c r="I31" s="13">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13">
+        <v>1</v>
+      </c>
+      <c r="K31" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="13">
         <f>K31*100/K$33</f>
         <v>2.78372591006424</v>
       </c>
-      <c r="M31" s="23"/>
+      <c r="M31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="10">
         <f t="shared" ref="C32:K32" si="1">IF(C2+C4+C6+C8+C10+C12+C14+C16+C18+C20+C22+C24+C26+C28+C30&gt;0,C2+C4+C6+C8+C10+C12+C14+C16+C18+C20+C22+C24+C26+C28+C30,"")</f>
         <v>229</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="10">
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="10">
         <f t="shared" si="1"/>
         <v>218</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="10">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="10">
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="10">
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="10">
         <f t="shared" si="1"/>
         <v>1363</v>
       </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="20"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="13">
         <v>139</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="13">
         <v>118</v>
       </c>
-      <c r="E33" s="22">
-        <v>1</v>
-      </c>
-      <c r="F33" s="22">
+      <c r="E33" s="13">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13">
         <v>2</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="13">
         <v>51</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="13">
         <v>60</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="13">
         <v>50</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="13">
         <v>46</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="13">
         <f>K3+K5+K7+K9+K11+K13+K15+K17+K19+K21+K23+K25+K27+K29+K31</f>
         <v>467</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="13">
         <f>L3+L5+L7+L9+L11+L13+L15+L17+L19+L21+L23+L25+L27+L29+L31</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="M33" s="23"/>
+      <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="17">
         <f t="shared" ref="B34:J34" si="2">IF(B2&lt;&gt;"",1,0)+IF(B4&lt;&gt;"",1,0)+IF(B6&lt;&gt;"",1,0)+IF(B8&lt;&gt;"",1,0)+IF(B10&lt;&gt;"",1,0)+IF(B12&lt;&gt;"",1,0)+IF(B14&lt;&gt;"",1,0)+IF(B16&lt;&gt;"",1,0)+IF(B18&lt;&gt;"",1,0)+IF(B20&lt;&gt;"",1,0)+IF(B22&lt;&gt;"",1,0)+IF(B24&lt;&gt;"",1,0)+IF(B26&lt;&gt;"",1,0)+IF(B28&lt;&gt;"",1,0)+IF(B30&lt;&gt;"",1,0)</f>
         <v>15</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="17">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="27"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="23">
         <f>IF(OR(C2&lt;&gt;"",D2&lt;&gt;"",E2&lt;&gt;"",F2&lt;&gt;"",G2&lt;&gt;"",H2&lt;&gt;"",I2&lt;&gt;"",J2&lt;&gt;""),1,0)+IF(OR(C4&lt;&gt;"",D4&lt;&gt;"",E4&lt;&gt;"",F4&lt;&gt;"",G4&lt;&gt;"",H4&lt;&gt;"",I4&lt;&gt;"",J4&lt;&gt;""),1,0)+IF(OR(C6&lt;&gt;"",D6&lt;&gt;"",E6&lt;&gt;"",F6&lt;&gt;"",G6&lt;&gt;"",H6&lt;&gt;"",I6&lt;&gt;"",J6&lt;&gt;""),1,0)+IF(OR(C8&lt;&gt;"",D8&lt;&gt;"",E8&lt;&gt;"",F8&lt;&gt;"",G8&lt;&gt;"",H8&lt;&gt;"",I8&lt;&gt;"",J8&lt;&gt;""),1,0)+IF(OR(C10&lt;&gt;"",D10&lt;&gt;"",E10&lt;&gt;"",F10&lt;&gt;"",G10&lt;&gt;"",H10&lt;&gt;"",I10&lt;&gt;"",J10&lt;&gt;""),1,0)+IF(OR(C12&lt;&gt;"",D12&lt;&gt;"",E12&lt;&gt;"",F12&lt;&gt;"",G12&lt;&gt;"",H12&lt;&gt;"",I12&lt;&gt;"",J12&lt;&gt;""),1,0)+IF(OR(C14&lt;&gt;"",D14&lt;&gt;"",E14&lt;&gt;"",F14&lt;&gt;"",G14&lt;&gt;"",H14&lt;&gt;"",I14&lt;&gt;"",J14&lt;&gt;""),1,0)+IF(OR(C16&lt;&gt;"",D16&lt;&gt;"",E16&lt;&gt;"",F16&lt;&gt;"",G16&lt;&gt;"",H16&lt;&gt;"",I16&lt;&gt;"",J16&lt;&gt;""),1,0)+IF(OR(C18&lt;&gt;"",D18&lt;&gt;"",E18&lt;&gt;"",F18&lt;&gt;"",G18&lt;&gt;"",H18&lt;&gt;"",I18&lt;&gt;"",J18&lt;&gt;""),1,0)+IF(OR(C20&lt;&gt;"",D20&lt;&gt;"",E20&lt;&gt;"",F20&lt;&gt;"",G20&lt;&gt;"",H20&lt;&gt;"",I20&lt;&gt;"",J20&lt;&gt;""),1,0)+IF(OR(C22&lt;&gt;"",D22&lt;&gt;"",E22&lt;&gt;"",F22&lt;&gt;"",G22&lt;&gt;"",H22&lt;&gt;"",I22&lt;&gt;"",J22&lt;&gt;""),1,0)+IF(OR(C24&lt;&gt;"",D24&lt;&gt;"",E24&lt;&gt;"",F24&lt;&gt;"",G24&lt;&gt;"",H24&lt;&gt;"",I24&lt;&gt;"",J24&lt;&gt;""),1,0)+IF(OR(C26&lt;&gt;"",D26&lt;&gt;"",E26&lt;&gt;"",F26&lt;&gt;"",G26&lt;&gt;"",H26&lt;&gt;"",I26&lt;&gt;"",J26&lt;&gt;""),1,0)+IF(OR(C28&lt;&gt;"",D28&lt;&gt;"",E28&lt;&gt;"",F28&lt;&gt;"",G28&lt;&gt;"",H28&lt;&gt;"",I28&lt;&gt;"",J28&lt;&gt;""),1,0)+IF(OR(C30&lt;&gt;"",D30&lt;&gt;"",E30&lt;&gt;"",F30&lt;&gt;"",G30&lt;&gt;"",H30&lt;&gt;"",I30&lt;&gt;"",J30&lt;&gt;""),1,0)</f>
         <v>15</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{EBC3A38B-4071-41F5-916B-C8F613DEA26F}"/>
   <mergeCells count="17">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C35:J35"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -10720,12 +10721,8 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>